--- a/data/trans_orig/P41D_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P41D_2023-Estudios-trans_orig.xlsx
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5002</v>
+        <v>5078</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1720532737815863</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6818716386765183</v>
+        <v>0.6921624205521438</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>3083</v>
+        <v>3086</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4211502143849348</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8332377183464053</v>
+        <v>0.8339595167729561</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -932,19 +932,19 @@
         <v>2821</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>721</v>
+        <v>734</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>6260</v>
+        <v>6478</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2555663052229162</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0652935053792079</v>
+        <v>0.06651326135139871</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5671650936971463</v>
+        <v>0.5869035488584048</v>
       </c>
     </row>
     <row r="8">
@@ -961,7 +961,7 @@
         <v>6074</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2334</v>
+        <v>2264</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>7336</v>
@@ -970,7 +970,7 @@
         <v>0.8279467262184137</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3181033790996589</v>
+        <v>0.3085604395943227</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -982,7 +982,7 @@
         <v>2142</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>3700</v>
@@ -991,7 +991,7 @@
         <v>0.5788497856150652</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1667622816535947</v>
+        <v>0.1660404832270439</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1003,19 +1003,19 @@
         <v>8216</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4777</v>
+        <v>4559</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>10316</v>
+        <v>10303</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7444336947770838</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4328349063028535</v>
+        <v>0.4130964511415953</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9347064946207921</v>
+        <v>0.9334867386486013</v>
       </c>
     </row>
     <row r="9">
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5005</v>
+        <v>5283</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.27757449253169</v>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6702272451153647</v>
+        <v>0.7075521360900805</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6739</v>
+        <v>6536</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1449316426228745</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4712263029127058</v>
+        <v>0.4570111484342623</v>
       </c>
     </row>
     <row r="11">
@@ -1183,7 +1183,7 @@
         <v>5394</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2462</v>
+        <v>2184</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>7467</v>
@@ -1192,7 +1192,7 @@
         <v>0.7224255074683099</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3297727548846352</v>
+        <v>0.2924478639099191</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1204,7 +1204,7 @@
         <v>12228</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>7562</v>
+        <v>7765</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>14301</v>
@@ -1213,7 +1213,7 @@
         <v>0.8550683573771255</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5287736970872939</v>
+        <v>0.5429888515657382</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -1311,16 +1311,16 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6305</v>
+        <v>6131</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.08907864004972729</v>
+        <v>0.08907864004972728</v>
       </c>
       <c r="H13" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4449293567574725</v>
+        <v>0.4326676233035622</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -1329,19 +1329,19 @@
         <v>3631</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1137</v>
+        <v>804</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7167</v>
+        <v>6864</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3056370857670518</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0956913238435765</v>
+        <v>0.06771678849977691</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6032664253426726</v>
+        <v>0.5777709102159907</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5</v>
@@ -1350,19 +1350,19 @@
         <v>4893</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1521</v>
+        <v>1614</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>9908</v>
+        <v>10089</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1878380836554621</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05840139744656048</v>
+        <v>0.06196749173355762</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3803628276665241</v>
+        <v>0.3872939146200574</v>
       </c>
     </row>
     <row r="14">
@@ -1379,7 +1379,7 @@
         <v>12908</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7865</v>
+        <v>8039</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>14170</v>
@@ -1388,7 +1388,7 @@
         <v>0.9109213599502727</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5550706432425395</v>
+        <v>0.5673323766964378</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1400,19 +1400,19 @@
         <v>8249</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4713</v>
+        <v>5016</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10743</v>
+        <v>11076</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6943629142329483</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3967335746573267</v>
+        <v>0.4222290897840092</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9043086761564232</v>
+        <v>0.9322832115002229</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>19</v>
@@ -1421,19 +1421,19 @@
         <v>21157</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>16142</v>
+        <v>15961</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>24529</v>
+        <v>24436</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.812161916344538</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6196371723334757</v>
+        <v>0.6127060853799424</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9415986025534391</v>
+        <v>0.9380325082664424</v>
       </c>
     </row>
     <row r="15">
